--- a/BackTest/2020-01-25 BackTest EOS.xlsx
+++ b/BackTest/2020-01-25 BackTest EOS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>8532.351753579995</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>7834.740253579995</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>6673.563607869994</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>6682.295507869994</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>2740.855141989993</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>2885.897241989993</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>2070.844941989993</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>2551.407741989993</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>1551.407741989993</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>1651.407741989993</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>275.7077419899931</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>275.7077419899931</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-1062.235658010007</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-1062.235658010007</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-4289.846858010007</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-2823.269258010007</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-2823.269258010007</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-2507.876258010007</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-3682.035658010007</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-6663.185858010007</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-8046.442658010007</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-8004.517658010007</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-7893.449658010007</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-7971.948758010007</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-10322.92075801001</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-11211.96685801001</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-10547.28675801001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-10616.29665801001</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-10981.64655801</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-11240.52385801</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-11240.52385801</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-11240.52385801</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-10740.52385801</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-10679.55375801</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-10664.02255801001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-7166.318658010004</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-7158.285958010004</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-7162.858558010004</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-7163.877448780005</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-7163.877448780005</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-7405.615448780005</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-8701.707548780005</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-8701.707548780005</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-9122.219448780004</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-7299.634148780005</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-7299.634148780005</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-8159.860548780005</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-9457.089448780005</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-9457.089448780005</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-8290.098148780005</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-3495.190448780006</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-3645.190448780006</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-4745.190448780006</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-4680.726948780006</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-31051.26814878001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-23857.86194878001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-24333.21094878</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-24292.54644878001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-25236.84124878001</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-25969.09381720001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-26049.09381720001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-29690.4847172</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-33982.3835172</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-34129.86701720001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-34425.60891720001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-34755.51581720001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-33489.97111720001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-33487.97111720001</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-38067.65091720001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-38886.47641720001</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-38885.3279172</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-41131.47241720001</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-31660.97501720001</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-31140.89601720001</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-31142.34851720001</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-31734.64121720001</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-31734.64121720001</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-31649.35411720001</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-31648.25411720001</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-31642.74791720001</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-31639.58011720001</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-31560.21281720001</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-31627.32311720001</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-31627.32311720001</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-21945.35381720001</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-22010.65221720002</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-27348.13891720002</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-32307.25741720002</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-35114.06291720002</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-34368.77709813002</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-34527.71079813002</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-34457.56749813002</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-34407.56749813002</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-34530.43219813002</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-35266.77129813001</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-35286.11034341002</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-35297.72184341001</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-36034.43014341001</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-35124.10424341001</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-36447.10424341001</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-31908.90194341001</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-31708.90194341001</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-31708.90194341001</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-31966.89634341001</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-32232.39634341001</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-32293.06254341001</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-34967.92794341</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-34971.63754341</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-34948.42344341</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-34807.10294341</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-34042.44954341</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-25173.97454341</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-25237.26884341001</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-25579.14424341001</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-25175.99334341001</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-25175.99334341001</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-25179.01334341001</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-25179.01334341001</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-24379.79614341001</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-24250.32215038001</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-24250.32215038001</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-24395.89325038001</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-23189.77125038001</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-23189.77125038001</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-23307.29745038001</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-22688.88945038001</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-22045.18255038001</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-22195.18255038001</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-22128.91275038001</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-22128.91275038001</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-22074.69275038001</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-22074.69275038001</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-22074.69275038001</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-22498.78855038001</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-22466.63715038001</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-22466.63715038001</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-22873.05055038001</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-22466.71125038001</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-22466.71125038001</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-22421.35045038001</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-22421.35045038001</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-21261.35045038001</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-20229.17725038001</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-17641.42945038001</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-17543.52085038001</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-17504.89565038001</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-19230.59975038001</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-18323.03345038001</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-20708.28775038002</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-20108.28775038002</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-20108.28775038002</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-19539.98245038002</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-22001.09695038002</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-21760.49525038002</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-18896.53297261002</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-18896.53297261002</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-19301.13027261002</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-19301.13027261002</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-18209.42387261002</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-17715.94577261002</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-19723.49017261002</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-19723.49017261002</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-27987.16757261002</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-28020.16757261002</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-28020.16757261002</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-28352.32397261002</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-28402.32397261002</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-28662.32397261002</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-28767.27737261002</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-29045.61177261002</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-29877.12927261002</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-31732.01077261002</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-31962.09787261002</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-31460.39977261002</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-31468.57087261002</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-31346.57087261002</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-32165.03937261002</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-32531.04787261002</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-32531.04787261002</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-32531.04787261002</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-33463.00527261002</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-32764.03727261002</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-32764.03727261002</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-32961.90327261002</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-33677.58867261002</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-33831.66897261002</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-35233.83977261002</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-33311.64207261003</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-36765.51537261003</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-36404.93007261003</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-36455.56417261003</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-36455.56417261003</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-42935.44937918003</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-40766.65977918003</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-40800.42537918003</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-40484.71477918003</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-39855.48977918003</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-40752.33347918003</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-40701.86307918003</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-42134.28843824003</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-41768.70823824003</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-40119.73823824003</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-40405.49313824003</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-27488.12094887003</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-28357.44474887002</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-28357.44474887002</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-28357.44474887002</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-28357.44474887002</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-28357.24474887002</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-28407.26514887002</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-27907.26514887002</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-26600.78564887002</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-28631.74904887002</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-28631.74904887002</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-29515.88724887003</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-28394.20714887002</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-32008.62724887002</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-32152.07664887002</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-32795.55804887002</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-32845.55804887002</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-32294.25274887002</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-32294.25274887002</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-32184.67194887002</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-32434.67194887002</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-32434.67194887002</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-32057.09194887002</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-32297.30144887002</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-32279.36754887002</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-32416.77644887002</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-32416.77644887002</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-32416.77644887002</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-32899.14174887002</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-32899.14174887002</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-32899.14174887002</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-32899.14174887002</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-32899.14174887002</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-32399.14174887002</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-33152.23504887002</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-33183.65444887002</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-33183.65444887002</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-32925.43834887002</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-33230.86114887002</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-33231.10304887002</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-32966.39354887002</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-32549.37594887002</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-32549.37594887002</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-32840.54244887002</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-33264.37054887002</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-33070.37054887002</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-33093.65414887002</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-33093.65414887002</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-32754.27184887002</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-33449.90324887002</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-34500.18404440003</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-34500.18404440003</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-34507.45424440003</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-34541.22914440002</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-34502.09674440002</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-45564.80314440002</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-45564.80314440002</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-45512.27984440002</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-45512.27984440002</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-45526.71104440002</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-45605.44104440002</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-45763.67504440002</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-45718.74744440002</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-45718.74744440002</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-46269.55604440001</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-43061.00424440001</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-43919.57324440002</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-43919.57324440002</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-45059.09574440002</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-45035.53114440002</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-45025.94834440002</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-45807.35014440002</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-45807.35014440002</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-45807.35014440002</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-45874.26464440002</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-45745.00824440002</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-45644.85944440002</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-45644.85944440002</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-45644.85944440002</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-45644.85944440002</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-45658.85944440002</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-45876.85944440002</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-45722.13814440002</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-45738.31244440002</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-45658.40244440002</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-46195.57414440002</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-46195.57414440002</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-46195.45024440002</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-47426.12374440001</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-47426.12374440001</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-51735.84304440002</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-55554.68444440002</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-53252.37284440002</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-52562.48584440001</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-52602.21414440002</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-52503.21654440001</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-52503.21654440001</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-52503.21654440001</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-52448.10304440001</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-53124.58404440001</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-53124.58404440001</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-54321.41754263001</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-54522.32664263001</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-56063.95484263</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-59885.42484263</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-62278.07074263001</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-62994.07544263</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-62994.07544263</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-65644.77704263</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-64451.14294262999</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-65224.34094262999</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-65099.16634262999</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-67372.82744262999</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-70572.99074262999</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-65543.99174262999</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-65738.83134263</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-68271.22654263</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-64014.13814263</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-64184.89124263</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-64685.77834263</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-73277.22934263</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-76657.81324263</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-99898.14174263</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-83582.57514263</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-86264.92214262999</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-83314.58744262999</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-83314.58744262999</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-89750.43204262998</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-89750.43204262998</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-91938.11294262999</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-104411.58862159</v>
       </c>
       <c r="H618" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-105389.20302159</v>
       </c>
       <c r="H619" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-105693.26282159</v>
       </c>
       <c r="H620" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-105693.26282159</v>
       </c>
       <c r="H621" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-104990.26282159</v>
       </c>
       <c r="H622" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-105065.92332159</v>
       </c>
       <c r="H623" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>-104864.08582159</v>
       </c>
       <c r="H624" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-105236.67912159</v>
       </c>
       <c r="H625" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>-105171.70592159</v>
       </c>
       <c r="H626" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>-105181.60582159</v>
       </c>
       <c r="H627" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-104741.03112159</v>
       </c>
       <c r="H628" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>-104793.30512159</v>
       </c>
       <c r="H629" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>-103386.99842159</v>
       </c>
       <c r="H630" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-103406.99842159</v>
       </c>
       <c r="H631" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-111344.62952159</v>
       </c>
       <c r="H632" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-112676.65452159</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-112676.65452159</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-112676.65452159</v>
       </c>
       <c r="H635" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-112676.65452159</v>
       </c>
       <c r="H636" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -25993,7 +25993,7 @@
         <v>-174588.29387993</v>
       </c>
       <c r="H776" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26389,11 +26389,17 @@
         <v>-203464.3332311</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
-      </c>
-      <c r="I788" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I788" t="n">
+        <v>3941</v>
+      </c>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26422,11 +26428,17 @@
         <v>-194642.0076311</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
-      </c>
-      <c r="I789" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I789" t="n">
+        <v>3942</v>
+      </c>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26455,11 +26467,17 @@
         <v>-195765.1432311</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
-      </c>
-      <c r="I790" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I790" t="n">
+        <v>3956</v>
+      </c>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26488,11 +26506,17 @@
         <v>-199820.3714311</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
-      </c>
-      <c r="I791" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I791" t="n">
+        <v>3953</v>
+      </c>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26521,11 +26545,17 @@
         <v>-203064.0863311</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
-      </c>
-      <c r="I792" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I792" t="n">
+        <v>3951</v>
+      </c>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26554,11 +26584,17 @@
         <v>-198840.7129311</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
-      </c>
-      <c r="I793" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I793" t="n">
+        <v>3947</v>
+      </c>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26587,11 +26623,17 @@
         <v>-199455.7428311</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
-      </c>
-      <c r="I794" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I794" t="n">
+        <v>3955</v>
+      </c>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26620,11 +26662,17 @@
         <v>-193794.8189311</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
-      </c>
-      <c r="I795" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I795" t="n">
+        <v>3947</v>
+      </c>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26653,11 +26701,17 @@
         <v>-186599.1557311</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
-      </c>
-      <c r="I796" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I796" t="n">
+        <v>3966</v>
+      </c>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -26690,7 +26744,11 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -26723,7 +26781,11 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -26756,7 +26818,11 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -26789,7 +26855,11 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -26822,7 +26892,11 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -26855,7 +26929,11 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -26888,7 +26966,11 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -26921,7 +27003,11 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -26954,7 +27040,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -26987,7 +27077,11 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27020,7 +27114,11 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27053,7 +27151,11 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27086,7 +27188,11 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27119,7 +27225,11 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27152,7 +27262,11 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27185,7 +27299,11 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27218,7 +27336,11 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27251,7 +27373,11 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27284,7 +27410,11 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27317,7 +27447,11 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27350,7 +27484,11 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27383,7 +27521,11 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27416,7 +27558,11 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27449,7 +27595,11 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -27482,7 +27632,11 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27515,7 +27669,11 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27548,7 +27706,11 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27581,7 +27743,11 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -27614,7 +27780,11 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -27647,7 +27817,11 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -27680,7 +27854,11 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -27713,7 +27891,11 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -27746,7 +27928,11 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -27779,7 +27965,11 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -27812,7 +28002,11 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -27845,7 +28039,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -27878,7 +28076,11 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -27911,7 +28113,11 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -27940,11 +28146,17 @@
         <v>-212472.2873391099</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
-      </c>
-      <c r="I835" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I835" t="n">
+        <v>3944</v>
+      </c>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -27973,11 +28185,17 @@
         <v>-211008.7445391099</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
-      </c>
-      <c r="I836" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I836" t="n">
+        <v>3942</v>
+      </c>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28006,11 +28224,17 @@
         <v>-210974.3422391099</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
-      </c>
-      <c r="I837" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I837" t="n">
+        <v>3959</v>
+      </c>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28039,11 +28263,17 @@
         <v>-210882.79473911</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
-      </c>
-      <c r="I838" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I838" t="n">
+        <v>3960</v>
+      </c>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28072,11 +28302,17 @@
         <v>-210882.79473911</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
-      </c>
-      <c r="I839" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I839" t="n">
+        <v>3962</v>
+      </c>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28105,11 +28341,17 @@
         <v>-210640.1749855099</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I840" t="n">
+        <v>3962</v>
+      </c>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28138,11 +28380,17 @@
         <v>-208004.9089855099</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>3964</v>
+      </c>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28171,11 +28419,17 @@
         <v>-207279.50898551</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
-      </c>
-      <c r="I842" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I842" t="n">
+        <v>3965</v>
+      </c>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28204,11 +28458,17 @@
         <v>-212827.03188551</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I843" t="n">
+        <v>3966</v>
+      </c>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28237,11 +28497,17 @@
         <v>-212136.03188551</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I844" t="n">
+        <v>3964</v>
+      </c>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28270,11 +28536,17 @@
         <v>-214868.81118551</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I845" t="n">
+        <v>3966</v>
+      </c>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28303,11 +28575,17 @@
         <v>-217328.81118551</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>3965</v>
+      </c>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28336,7 +28614,7 @@
         <v>-217328.81118551</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I847" t="n">
         <v>3961</v>
@@ -28344,7 +28622,7 @@
       <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L847" t="n">
@@ -28375,7 +28653,7 @@
         <v>-217888.81118551</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I848" t="n">
         <v>3961</v>
@@ -28414,7 +28692,7 @@
         <v>-217900.99738551</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I849" t="n">
         <v>3959</v>
@@ -28453,7 +28731,7 @@
         <v>-217900.99738551</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I850" t="n">
         <v>3956</v>
@@ -28492,7 +28770,7 @@
         <v>-218256.39018551</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I851" t="n">
         <v>3956</v>
@@ -28531,7 +28809,7 @@
         <v>-214105.91588551</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I852" t="n">
         <v>3943</v>
@@ -28570,7 +28848,7 @@
         <v>-216958.63478551</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I853" t="n">
         <v>3950</v>
@@ -28609,7 +28887,7 @@
         <v>-215963.6314855099</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I854" t="n">
         <v>3947</v>
@@ -28648,7 +28926,7 @@
         <v>-215967.6314855099</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I855" t="n">
         <v>3949</v>
@@ -28687,7 +28965,7 @@
         <v>-218270.94348551</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I856" t="n">
         <v>3948</v>
@@ -28726,7 +29004,7 @@
         <v>-218916.02438551</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I857" t="n">
         <v>3943</v>
@@ -28765,7 +29043,7 @@
         <v>-218916.02438551</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I858" t="n">
         <v>3941</v>
@@ -28804,7 +29082,7 @@
         <v>-218916.02438551</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I859" t="n">
         <v>3941</v>
@@ -28843,7 +29121,7 @@
         <v>-219601.06508551</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I860" t="n">
         <v>3941</v>
@@ -28882,7 +29160,7 @@
         <v>-229640.43678551</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I861" t="n">
         <v>3934</v>
@@ -28921,7 +29199,7 @@
         <v>-227479.41058551</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I862" t="n">
         <v>3930</v>
@@ -28960,7 +29238,7 @@
         <v>-227796.17888551</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I863" t="n">
         <v>3938</v>
@@ -28999,7 +29277,7 @@
         <v>-226153.86688551</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I864" t="n">
         <v>3937</v>
@@ -29038,7 +29316,7 @@
         <v>-226051.63418551</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I865" t="n">
         <v>3943</v>
@@ -29077,7 +29355,7 @@
         <v>-225962.66808551</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I866" t="n">
         <v>3954</v>
@@ -29116,7 +29394,7 @@
         <v>-225960.66808551</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I867" t="n">
         <v>3966</v>
@@ -29155,9 +29433,11 @@
         <v>-225131.41608551</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I868" t="n">
+        <v>3967</v>
+      </c>
       <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
@@ -29192,9 +29472,11 @@
         <v>-227592.40568551</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I869" t="n">
+        <v>3975</v>
+      </c>
       <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
@@ -29229,9 +29511,11 @@
         <v>-227435.06478551</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I870" t="n">
+        <v>3971</v>
+      </c>
       <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
@@ -29266,9 +29550,11 @@
         <v>-227213.21568551</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
-      </c>
-      <c r="I871" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I871" t="n">
+        <v>3972</v>
+      </c>
       <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
@@ -29303,9 +29589,11 @@
         <v>-214867.84868551</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
-      </c>
-      <c r="I872" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I872" t="n">
+        <v>3974</v>
+      </c>
       <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
@@ -29340,7 +29628,7 @@
         <v>-214767.84868551</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I873" t="n">
         <v>3975</v>
@@ -31636,7 +31924,7 @@
         <v>-154131.72862863</v>
       </c>
       <c r="H935" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -31710,7 +31998,7 @@
         <v>-154130.58592863</v>
       </c>
       <c r="H937" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -31784,7 +32072,7 @@
         <v>-155761.06422863</v>
       </c>
       <c r="H939" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -31821,7 +32109,7 @@
         <v>-155761.06422863</v>
       </c>
       <c r="H940" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -31858,7 +32146,7 @@
         <v>-155647.98462863</v>
       </c>
       <c r="H941" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -31932,7 +32220,7 @@
         <v>-157454.58062863</v>
       </c>
       <c r="H943" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -32006,7 +32294,7 @@
         <v>-156633.50212863</v>
       </c>
       <c r="H945" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -32080,7 +32368,7 @@
         <v>-155729.15792863</v>
       </c>
       <c r="H947" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -35262,18 +35550,16 @@
         <v>-118122.90024631</v>
       </c>
       <c r="H1033" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
       <c r="K1033" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L1033" t="n">
-        <v>1</v>
-      </c>
+      <c r="L1033" t="inlineStr"/>
       <c r="M1033" t="inlineStr"/>
     </row>
     <row r="1034">
@@ -35303,11 +35589,7 @@
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1034" t="inlineStr"/>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -35340,11 +35622,7 @@
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1035" t="inlineStr"/>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -35377,11 +35655,7 @@
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1036" t="inlineStr"/>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -35414,11 +35688,7 @@
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1037" t="inlineStr"/>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -35451,11 +35721,7 @@
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1038" t="inlineStr"/>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -35488,17 +35754,13 @@
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1039" t="inlineStr"/>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
       <c r="M1039" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest EOS.xlsx
+++ b/BackTest/2020-01-25 BackTest EOS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>8532.351753579995</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>7834.740253579995</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>6673.563607869994</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>6682.295507869994</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>2740.855141989993</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>2885.897241989993</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>2070.844941989993</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>2551.407741989993</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>1551.407741989993</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>1651.407741989993</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>275.7077419899931</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>275.7077419899931</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-1062.235658010007</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-1062.235658010007</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-4289.846858010007</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-2823.269258010007</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-2823.269258010007</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-2507.876258010007</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-3682.035658010007</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-6663.185858010007</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-8046.442658010007</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-8004.517658010007</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-7893.449658010007</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-7971.948758010007</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-10322.92075801001</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-11211.96685801001</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-10547.28675801001</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-10616.29665801001</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-10981.64655801</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-11240.52385801</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-11240.52385801</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-11240.52385801</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-10740.52385801</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-10664.02255801001</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-8701.707548780005</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-8701.707548780005</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-7299.634148780005</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-7299.634148780005</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-8159.860548780005</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-9457.089448780005</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-9457.089448780005</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-8290.098148780005</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-3495.190448780006</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-3645.190448780006</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-4745.190448780006</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-4680.726948780006</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-31051.26814878001</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-23857.86194878001</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-24333.21094878</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-24292.54644878001</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-25236.84124878001</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-25969.09381720001</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-26049.09381720001</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-29690.4847172</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-33982.3835172</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-34129.86701720001</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-34425.60891720001</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-34755.51581720001</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-33489.97111720001</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-33487.97111720001</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-38067.65091720001</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-38886.47641720001</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-38885.3279172</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-41131.47241720001</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-23307.29745038001</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-22688.88945038001</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-22045.18255038001</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-22195.18255038001</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-22128.91275038001</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-22128.91275038001</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-22074.69275038001</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-22074.69275038001</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-22074.69275038001</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-22498.78855038001</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-22466.63715038001</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-22466.63715038001</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-22873.05055038001</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-22466.71125038001</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-22466.71125038001</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-22421.35045038001</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-22421.35045038001</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-21261.35045038001</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-20229.17725038001</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-17641.42945038001</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-17543.52085038001</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-17504.89565038001</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-19230.59975038001</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-18323.03345038001</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-20708.28775038002</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-20108.28775038002</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-20108.28775038002</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-19539.98245038002</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-22001.09695038002</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-21760.49525038002</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-18896.53297261002</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-18896.53297261002</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-19301.13027261002</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-19301.13027261002</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-18209.42387261002</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-17715.94577261002</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-19723.49017261002</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-19723.49017261002</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-27987.16757261002</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-28020.16757261002</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-28020.16757261002</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-28352.32397261002</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-28402.32397261002</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-28662.32397261002</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-28767.27737261002</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-29045.61177261002</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-29877.12927261002</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-31732.01077261002</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-31962.09787261002</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-31460.39977261002</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-31468.57087261002</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-31346.57087261002</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-32165.03937261002</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-32531.04787261002</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-32531.04787261002</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-32531.04787261002</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-33463.00527261002</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-32764.03727261002</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-32764.03727261002</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-32961.90327261002</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-33677.58867261002</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-33831.66897261002</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-35233.83977261002</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-33311.64207261003</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-36765.51537261003</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-36404.93007261003</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-36455.56417261003</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-36455.56417261003</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-42935.44937918003</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-40766.65977918003</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-40800.42537918003</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-40484.71477918003</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-39855.48977918003</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-40752.33347918003</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-40701.86307918003</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-42134.28843824003</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-41768.70823824003</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-28407.26514887002</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-27907.26514887002</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-26600.78564887002</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-28631.74904887002</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-28631.74904887002</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-29515.88724887003</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-28394.20714887002</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-32008.62724887002</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-32152.07664887002</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-32795.55804887002</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-32845.55804887002</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-32294.25274887002</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-32294.25274887002</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-32184.67194887002</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-32434.67194887002</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-32434.67194887002</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-32057.09194887002</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-32297.30144887002</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-32279.36754887002</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-32416.77644887002</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-32416.77644887002</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-32416.77644887002</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-32899.14174887002</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-32899.14174887002</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-32899.14174887002</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-32899.14174887002</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-32899.14174887002</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-32399.14174887002</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-33152.23504887002</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-33183.65444887002</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-33183.65444887002</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-32925.43834887002</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-33230.86114887002</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-33231.10304887002</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-32966.39354887002</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-32549.37594887002</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-32549.37594887002</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-32840.54244887002</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-33264.37054887002</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-33070.37054887002</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-33093.65414887002</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-33093.65414887002</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-32754.27184887002</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-33449.90324887002</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-34500.18404440003</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-34500.18404440003</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-34507.45424440003</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-34541.22914440002</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-34502.09674440002</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-45564.80314440002</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-45564.80314440002</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-45512.27984440002</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-45512.27984440002</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-45526.71104440002</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-45605.44104440002</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-45763.67504440002</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-45718.74744440002</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-45718.74744440002</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-46269.55604440001</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-43061.00424440001</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-43919.57324440002</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-43919.57324440002</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-45059.09574440002</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-45035.53114440002</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-45025.94834440002</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-45807.35014440002</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-45807.35014440002</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-45807.35014440002</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-45874.26464440002</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-45745.00824440002</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-45644.85944440002</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-45644.85944440002</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-45644.85944440002</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-45644.85944440002</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-45658.85944440002</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-45876.85944440002</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-45722.13814440002</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-45738.31244440002</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-45658.40244440002</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-46195.57414440002</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-46195.57414440002</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-46195.45024440002</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-47426.12374440001</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-47426.12374440001</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -26389,17 +26389,11 @@
         <v>-203464.3332311</v>
       </c>
       <c r="H788" t="n">
-        <v>1</v>
-      </c>
-      <c r="I788" t="n">
-        <v>3941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26428,17 +26422,11 @@
         <v>-194642.0076311</v>
       </c>
       <c r="H789" t="n">
-        <v>1</v>
-      </c>
-      <c r="I789" t="n">
-        <v>3942</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26467,17 +26455,11 @@
         <v>-195765.1432311</v>
       </c>
       <c r="H790" t="n">
-        <v>1</v>
-      </c>
-      <c r="I790" t="n">
-        <v>3956</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26506,17 +26488,11 @@
         <v>-199820.3714311</v>
       </c>
       <c r="H791" t="n">
-        <v>1</v>
-      </c>
-      <c r="I791" t="n">
-        <v>3953</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26545,17 +26521,11 @@
         <v>-203064.0863311</v>
       </c>
       <c r="H792" t="n">
-        <v>1</v>
-      </c>
-      <c r="I792" t="n">
-        <v>3951</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26584,17 +26554,11 @@
         <v>-198840.7129311</v>
       </c>
       <c r="H793" t="n">
-        <v>1</v>
-      </c>
-      <c r="I793" t="n">
-        <v>3947</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26623,17 +26587,11 @@
         <v>-199455.7428311</v>
       </c>
       <c r="H794" t="n">
-        <v>1</v>
-      </c>
-      <c r="I794" t="n">
-        <v>3955</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26662,17 +26620,11 @@
         <v>-193794.8189311</v>
       </c>
       <c r="H795" t="n">
-        <v>1</v>
-      </c>
-      <c r="I795" t="n">
-        <v>3947</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26701,17 +26653,11 @@
         <v>-186599.1557311</v>
       </c>
       <c r="H796" t="n">
-        <v>1</v>
-      </c>
-      <c r="I796" t="n">
-        <v>3966</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K796" t="inlineStr"/>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -26744,11 +26690,7 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K797" t="inlineStr"/>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -26781,11 +26723,7 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -26818,11 +26756,7 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -26855,11 +26789,7 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K800" t="inlineStr"/>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -26892,11 +26822,7 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K801" t="inlineStr"/>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -26929,11 +26855,7 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K802" t="inlineStr"/>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -26966,11 +26888,7 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K803" t="inlineStr"/>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -27003,11 +26921,7 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K804" t="inlineStr"/>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -27040,11 +26954,7 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K805" t="inlineStr"/>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27077,11 +26987,7 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K806" t="inlineStr"/>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27114,11 +27020,7 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K807" t="inlineStr"/>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27151,11 +27053,7 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K808" t="inlineStr"/>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27188,11 +27086,7 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K809" t="inlineStr"/>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27225,11 +27119,7 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K810" t="inlineStr"/>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27262,11 +27152,7 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K811" t="inlineStr"/>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27299,11 +27185,7 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K812" t="inlineStr"/>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27336,11 +27218,7 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K813" t="inlineStr"/>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27373,11 +27251,7 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K814" t="inlineStr"/>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27410,11 +27284,7 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K815" t="inlineStr"/>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27447,11 +27317,7 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K816" t="inlineStr"/>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27484,11 +27350,7 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K817" t="inlineStr"/>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27521,11 +27383,7 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K818" t="inlineStr"/>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27558,11 +27416,7 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K819" t="inlineStr"/>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27595,11 +27449,7 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K820" t="inlineStr"/>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -27632,11 +27482,7 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K821" t="inlineStr"/>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27669,11 +27515,7 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K822" t="inlineStr"/>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27706,11 +27548,7 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K823" t="inlineStr"/>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27743,11 +27581,7 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K824" t="inlineStr"/>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -27780,11 +27614,7 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K825" t="inlineStr"/>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -27817,11 +27647,7 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K826" t="inlineStr"/>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -27854,11 +27680,7 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K827" t="inlineStr"/>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -27891,11 +27713,7 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K828" t="inlineStr"/>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -27928,11 +27746,7 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K829" t="inlineStr"/>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -27965,11 +27779,7 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K830" t="inlineStr"/>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -28002,11 +27812,7 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K831" t="inlineStr"/>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -28039,11 +27845,7 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K832" t="inlineStr"/>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -28076,11 +27878,7 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K833" t="inlineStr"/>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -28113,11 +27911,7 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K834" t="inlineStr"/>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -28146,17 +27940,11 @@
         <v>-212472.2873391099</v>
       </c>
       <c r="H835" t="n">
-        <v>1</v>
-      </c>
-      <c r="I835" t="n">
-        <v>3944</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K835" t="inlineStr"/>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -28185,17 +27973,11 @@
         <v>-211008.7445391099</v>
       </c>
       <c r="H836" t="n">
-        <v>1</v>
-      </c>
-      <c r="I836" t="n">
-        <v>3942</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K836" t="inlineStr"/>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28224,17 +28006,11 @@
         <v>-210974.3422391099</v>
       </c>
       <c r="H837" t="n">
-        <v>1</v>
-      </c>
-      <c r="I837" t="n">
-        <v>3959</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K837" t="inlineStr"/>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28263,17 +28039,11 @@
         <v>-210882.79473911</v>
       </c>
       <c r="H838" t="n">
-        <v>1</v>
-      </c>
-      <c r="I838" t="n">
-        <v>3960</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K838" t="inlineStr"/>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28302,17 +28072,11 @@
         <v>-210882.79473911</v>
       </c>
       <c r="H839" t="n">
-        <v>1</v>
-      </c>
-      <c r="I839" t="n">
-        <v>3962</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K839" t="inlineStr"/>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28341,17 +28105,11 @@
         <v>-210640.1749855099</v>
       </c>
       <c r="H840" t="n">
-        <v>1</v>
-      </c>
-      <c r="I840" t="n">
-        <v>3962</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K840" t="inlineStr"/>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28380,17 +28138,11 @@
         <v>-208004.9089855099</v>
       </c>
       <c r="H841" t="n">
-        <v>1</v>
-      </c>
-      <c r="I841" t="n">
-        <v>3964</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K841" t="inlineStr"/>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28419,17 +28171,11 @@
         <v>-207279.50898551</v>
       </c>
       <c r="H842" t="n">
-        <v>1</v>
-      </c>
-      <c r="I842" t="n">
-        <v>3965</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K842" t="inlineStr"/>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28458,17 +28204,11 @@
         <v>-212827.03188551</v>
       </c>
       <c r="H843" t="n">
-        <v>1</v>
-      </c>
-      <c r="I843" t="n">
-        <v>3966</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K843" t="inlineStr"/>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28497,17 +28237,11 @@
         <v>-212136.03188551</v>
       </c>
       <c r="H844" t="n">
-        <v>1</v>
-      </c>
-      <c r="I844" t="n">
-        <v>3964</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K844" t="inlineStr"/>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28536,17 +28270,11 @@
         <v>-214868.81118551</v>
       </c>
       <c r="H845" t="n">
-        <v>1</v>
-      </c>
-      <c r="I845" t="n">
-        <v>3966</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K845" t="inlineStr"/>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28575,17 +28303,11 @@
         <v>-217328.81118551</v>
       </c>
       <c r="H846" t="n">
-        <v>1</v>
-      </c>
-      <c r="I846" t="n">
-        <v>3965</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K846" t="inlineStr"/>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28614,17 +28336,11 @@
         <v>-217328.81118551</v>
       </c>
       <c r="H847" t="n">
-        <v>1</v>
-      </c>
-      <c r="I847" t="n">
-        <v>3961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28653,17 +28369,11 @@
         <v>-217888.81118551</v>
       </c>
       <c r="H848" t="n">
-        <v>1</v>
-      </c>
-      <c r="I848" t="n">
-        <v>3961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K848" t="inlineStr"/>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28692,17 +28402,11 @@
         <v>-217900.99738551</v>
       </c>
       <c r="H849" t="n">
-        <v>1</v>
-      </c>
-      <c r="I849" t="n">
-        <v>3959</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K849" t="inlineStr"/>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28731,17 +28435,11 @@
         <v>-217900.99738551</v>
       </c>
       <c r="H850" t="n">
-        <v>1</v>
-      </c>
-      <c r="I850" t="n">
-        <v>3956</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K850" t="inlineStr"/>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28770,17 +28468,11 @@
         <v>-218256.39018551</v>
       </c>
       <c r="H851" t="n">
-        <v>1</v>
-      </c>
-      <c r="I851" t="n">
-        <v>3956</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K851" t="inlineStr"/>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28809,17 +28501,11 @@
         <v>-214105.91588551</v>
       </c>
       <c r="H852" t="n">
-        <v>1</v>
-      </c>
-      <c r="I852" t="n">
-        <v>3943</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K852" t="inlineStr"/>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28848,17 +28534,11 @@
         <v>-216958.63478551</v>
       </c>
       <c r="H853" t="n">
-        <v>1</v>
-      </c>
-      <c r="I853" t="n">
-        <v>3950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K853" t="inlineStr"/>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28895,7 +28575,7 @@
       <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L854" t="n">
@@ -29394,11 +29074,9 @@
         <v>-225960.66808551</v>
       </c>
       <c r="H867" t="n">
-        <v>1</v>
-      </c>
-      <c r="I867" t="n">
-        <v>3966</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
@@ -29433,11 +29111,9 @@
         <v>-225131.41608551</v>
       </c>
       <c r="H868" t="n">
-        <v>1</v>
-      </c>
-      <c r="I868" t="n">
-        <v>3967</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
@@ -29472,11 +29148,9 @@
         <v>-227592.40568551</v>
       </c>
       <c r="H869" t="n">
-        <v>1</v>
-      </c>
-      <c r="I869" t="n">
-        <v>3975</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
@@ -29511,11 +29185,9 @@
         <v>-227435.06478551</v>
       </c>
       <c r="H870" t="n">
-        <v>1</v>
-      </c>
-      <c r="I870" t="n">
-        <v>3971</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
@@ -29550,11 +29222,9 @@
         <v>-227213.21568551</v>
       </c>
       <c r="H871" t="n">
-        <v>1</v>
-      </c>
-      <c r="I871" t="n">
-        <v>3972</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
@@ -29589,11 +29259,9 @@
         <v>-214867.84868551</v>
       </c>
       <c r="H872" t="n">
-        <v>1</v>
-      </c>
-      <c r="I872" t="n">
-        <v>3974</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
@@ -29628,11 +29296,9 @@
         <v>-214767.84868551</v>
       </c>
       <c r="H873" t="n">
-        <v>1</v>
-      </c>
-      <c r="I873" t="n">
-        <v>3975</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
@@ -30740,18 +30406,16 @@
         <v>-174449.16972776</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L903" t="n">
-        <v>1</v>
-      </c>
+      <c r="L903" t="inlineStr"/>
       <c r="M903" t="inlineStr"/>
     </row>
     <row r="904">
@@ -30777,15 +30441,11 @@
         <v>-173088.72162776</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K904" t="inlineStr"/>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30814,15 +30474,11 @@
         <v>-172300.37432776</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K905" t="inlineStr"/>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30851,15 +30507,11 @@
         <v>-156400.95357357</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K906" t="inlineStr"/>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30888,15 +30540,11 @@
         <v>-167570.38102091</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K907" t="inlineStr"/>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30925,15 +30573,11 @@
         <v>-155150.13081896</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K908" t="inlineStr"/>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30962,15 +30606,11 @@
         <v>-138780.96212091</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K909" t="inlineStr"/>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -30999,15 +30639,11 @@
         <v>-129581.31946585</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K910" t="inlineStr"/>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -31036,15 +30672,11 @@
         <v>-133367.01916585</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K911" t="inlineStr"/>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -31073,15 +30705,11 @@
         <v>-136104.09979317</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K912" t="inlineStr"/>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -31110,15 +30738,11 @@
         <v>-136104.09979317</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K913" t="inlineStr"/>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -31147,15 +30771,11 @@
         <v>-136856.29689317</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K914" t="inlineStr"/>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -31184,15 +30804,11 @@
         <v>-136141.55609317</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K915" t="inlineStr"/>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -31221,15 +30837,11 @@
         <v>-135709.01329317</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K916" t="inlineStr"/>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -31258,15 +30870,11 @@
         <v>-147107.47601703</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K917" t="inlineStr"/>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -31295,15 +30903,11 @@
         <v>-147471.69551703</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K918" t="inlineStr"/>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -31332,15 +30936,11 @@
         <v>-148767.37111703</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K919" t="inlineStr"/>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -31369,15 +30969,11 @@
         <v>-150038.84461703</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K920" t="inlineStr"/>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -31410,11 +31006,7 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K921" t="inlineStr"/>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -31447,11 +31039,7 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K922" t="inlineStr"/>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -31484,11 +31072,7 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K923" t="inlineStr"/>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -31521,11 +31105,7 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K924" t="inlineStr"/>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -31558,11 +31138,7 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K925" t="inlineStr"/>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -31595,11 +31171,7 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K926" t="inlineStr"/>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -31632,11 +31204,7 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K927" t="inlineStr"/>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -31669,11 +31237,7 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K928" t="inlineStr"/>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -31706,11 +31270,7 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K929" t="inlineStr"/>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -31743,11 +31303,7 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K930" t="inlineStr"/>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -31780,11 +31336,7 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K931" t="inlineStr"/>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -31817,11 +31369,7 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K932" t="inlineStr"/>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -31854,11 +31402,7 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K933" t="inlineStr"/>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -31891,11 +31435,7 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K934" t="inlineStr"/>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -31928,11 +31468,7 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K935" t="inlineStr"/>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -31965,11 +31501,7 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K936" t="inlineStr"/>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -32002,11 +31534,7 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K937" t="inlineStr"/>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -32039,11 +31567,7 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K938" t="inlineStr"/>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -32076,11 +31600,7 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K939" t="inlineStr"/>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -32113,11 +31633,7 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K940" t="inlineStr"/>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -32150,11 +31666,7 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K941" t="inlineStr"/>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -32187,11 +31699,7 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K942" t="inlineStr"/>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -32224,11 +31732,7 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K943" t="inlineStr"/>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -32261,11 +31765,7 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K944" t="inlineStr"/>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -32298,11 +31798,7 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K945" t="inlineStr"/>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -32335,11 +31831,7 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K946" t="inlineStr"/>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -32372,11 +31864,7 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K947" t="inlineStr"/>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -32409,11 +31897,7 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K948" t="inlineStr"/>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -32446,11 +31930,7 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K949" t="inlineStr"/>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -32483,11 +31963,7 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K950" t="inlineStr"/>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -32520,11 +31996,7 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K951" t="inlineStr"/>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -32557,11 +32029,7 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K952" t="inlineStr"/>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -32594,11 +32062,7 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K953" t="inlineStr"/>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -32631,11 +32095,7 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K954" t="inlineStr"/>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -32668,11 +32128,7 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K955" t="inlineStr"/>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -32705,11 +32161,7 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K956" t="inlineStr"/>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -32742,11 +32194,7 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K957" t="inlineStr"/>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -32779,11 +32227,7 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K958" t="inlineStr"/>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -32816,11 +32260,7 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K959" t="inlineStr"/>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -32853,11 +32293,7 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K960" t="inlineStr"/>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -32890,11 +32326,7 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K961" t="inlineStr"/>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -32927,11 +32359,7 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K962" t="inlineStr"/>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -32964,11 +32392,7 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K963" t="inlineStr"/>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -33001,11 +32425,7 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K964" t="inlineStr"/>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -33038,11 +32458,7 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K965" t="inlineStr"/>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -33075,11 +32491,7 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K966" t="inlineStr"/>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -33112,11 +32524,7 @@
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K967" t="inlineStr"/>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -33149,11 +32557,7 @@
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K968" t="inlineStr"/>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -33186,11 +32590,7 @@
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K969" t="inlineStr"/>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -33223,11 +32623,7 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K970" t="inlineStr"/>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -33260,11 +32656,7 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K971" t="inlineStr"/>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -33297,11 +32689,7 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K972" t="inlineStr"/>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -33334,11 +32722,7 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K973" t="inlineStr"/>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -33371,11 +32755,7 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K974" t="inlineStr"/>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -33408,11 +32788,7 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K975" t="inlineStr"/>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -33445,11 +32821,7 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K976" t="inlineStr"/>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -33482,11 +32854,7 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K977" t="inlineStr"/>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -33519,11 +32887,7 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K978" t="inlineStr"/>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -33556,11 +32920,7 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K979" t="inlineStr"/>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -33593,11 +32953,7 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K980" t="inlineStr"/>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -33630,11 +32986,7 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K981" t="inlineStr"/>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -33667,11 +33019,7 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K982" t="inlineStr"/>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -33704,11 +33052,7 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K983" t="inlineStr"/>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -33741,11 +33085,7 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K984" t="inlineStr"/>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -33778,11 +33118,7 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K985" t="inlineStr"/>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -33815,11 +33151,7 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K986" t="inlineStr"/>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -33852,11 +33184,7 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K987" t="inlineStr"/>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -33889,11 +33217,7 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K988" t="inlineStr"/>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -33926,11 +33250,7 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K989" t="inlineStr"/>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -33963,11 +33283,7 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K990" t="inlineStr"/>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -34000,11 +33316,7 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K991" t="inlineStr"/>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -34037,11 +33349,7 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K992" t="inlineStr"/>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -34074,11 +33382,7 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K993" t="inlineStr"/>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -34111,11 +33415,7 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K994" t="inlineStr"/>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -34148,11 +33448,7 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K995" t="inlineStr"/>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -34185,11 +33481,7 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K996" t="inlineStr"/>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -34222,11 +33514,7 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K997" t="inlineStr"/>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -34259,11 +33547,7 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K998" t="inlineStr"/>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -34296,11 +33580,7 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K999" t="inlineStr"/>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -34333,11 +33613,7 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1000" t="inlineStr"/>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -34370,11 +33646,7 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1001" t="inlineStr"/>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -34407,11 +33679,7 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1002" t="inlineStr"/>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -34444,11 +33712,7 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1003" t="inlineStr"/>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -34481,11 +33745,7 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1004" t="inlineStr"/>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -34518,11 +33778,7 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1005" t="inlineStr"/>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -34555,11 +33811,7 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1006" t="inlineStr"/>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -34592,11 +33844,7 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1007" t="inlineStr"/>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -34629,11 +33877,7 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1008" t="inlineStr"/>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -34666,11 +33910,7 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1009" t="inlineStr"/>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -34703,11 +33943,7 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1010" t="inlineStr"/>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -34740,11 +33976,7 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1011" t="inlineStr"/>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -34777,11 +34009,7 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1012" t="inlineStr"/>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -34814,11 +34042,7 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1013" t="inlineStr"/>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -34851,11 +34075,7 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1014" t="inlineStr"/>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -34888,11 +34108,7 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1015" t="inlineStr"/>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -34925,11 +34141,7 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1016" t="inlineStr"/>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -34962,11 +34174,7 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1017" t="inlineStr"/>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -34999,11 +34207,7 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1018" t="inlineStr"/>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -35036,11 +34240,7 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1019" t="inlineStr"/>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -35073,11 +34273,7 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1020" t="inlineStr"/>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -35110,11 +34306,7 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1021" t="inlineStr"/>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -35147,11 +34339,7 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1022" t="inlineStr"/>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -35184,11 +34372,7 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1023" t="inlineStr"/>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -35221,11 +34405,7 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1024" t="inlineStr"/>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -35258,11 +34438,7 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1025" t="inlineStr"/>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -35295,11 +34471,7 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1026" t="inlineStr"/>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -35332,11 +34504,7 @@
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1027" t="inlineStr"/>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -35369,11 +34537,7 @@
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1028" t="inlineStr"/>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -35406,11 +34570,7 @@
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1029" t="inlineStr"/>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -35443,11 +34603,7 @@
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1030" t="inlineStr"/>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -35480,11 +34636,7 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1031" t="inlineStr"/>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -35517,11 +34669,7 @@
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1032" t="inlineStr"/>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -35550,16 +34698,14 @@
         <v>-118122.90024631</v>
       </c>
       <c r="H1033" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L1033" t="inlineStr"/>
+      <c r="K1033" t="inlineStr"/>
+      <c r="L1033" t="n">
+        <v>1</v>
+      </c>
       <c r="M1033" t="inlineStr"/>
     </row>
     <row r="1034">
@@ -35761,6 +34907,6 @@
       <c r="M1039" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest EOS.xlsx
+++ b/BackTest/2020-01-25 BackTest EOS.xlsx
@@ -451,7 +451,7 @@
         <v>8532.351753579995</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>7834.740253579995</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>6673.563607869994</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>6682.295507869994</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>7537.941207869994</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>9093.544807869994</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>10099.71820786999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>11461.79700786999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>10869.06990786999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>6070.237107869993</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>6206.661907869992</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>6206.661907869992</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>1751.926907869993</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>1751.926907869993</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-6413.927358010005</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-6858.668658010005</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-6948.846058010005</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-6870.501958010004</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-7055.697358010004</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-7166.318658010004</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-7158.285958010004</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-7162.858558010004</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-7163.877448780005</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-7163.877448780005</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-7405.615448780005</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-8506.910048780004</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-8701.707548780005</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-7299.634148780005</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-7299.634148780005</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-8159.860548780005</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-9457.089448780005</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-9457.089448780005</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-8290.098148780005</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-3495.190448780006</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-3645.190448780006</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-4745.190448780006</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-31051.26814878001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-23857.86194878001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-21987.78851720001</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-21987.78851720001</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-27264.90924341</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-27262.90924341</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-25354.00034341</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-25173.97454341</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-25173.97454341</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-25237.26884341001</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-25579.14424341001</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-25175.99334341001</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-25175.99334341001</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-25179.01334341001</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-25179.01334341001</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-24379.79614341001</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-24250.32215038001</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-24250.32215038001</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-24395.89325038001</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-23189.77125038001</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-23189.77125038001</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-23307.29745038001</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-22688.88945038001</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-22045.18255038001</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-22195.18255038001</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-22128.91275038001</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-22128.91275038001</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-22074.69275038001</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-22074.69275038001</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-22074.69275038001</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-22498.78855038001</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-22466.63715038001</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-22466.63715038001</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-22873.05055038001</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-22466.71125038001</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-22466.71125038001</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-22421.35045038001</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-22421.35045038001</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-21261.35045038001</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-20229.17725038001</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-17641.42945038001</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-17543.52085038001</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-17504.89565038001</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-19230.59975038001</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-18323.03345038001</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-20708.28775038002</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-20108.28775038002</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-20108.28775038002</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-19539.98245038002</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-22001.09695038002</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-21760.49525038002</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-18896.53297261002</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-18896.53297261002</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-19301.13027261002</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-19301.13027261002</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-18209.42387261002</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-17715.94577261002</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-19723.49017261002</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-19723.49017261002</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-27987.16757261002</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-28020.16757261002</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-28020.16757261002</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-28352.32397261002</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-28402.32397261002</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-28662.32397261002</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-28767.27737261002</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-29045.61177261002</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-29877.12927261002</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-31732.01077261002</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-32165.03937261002</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-32531.04787261002</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-30525.09443824003</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-30525.09443824003</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-26712.85184887003</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-27488.32094887003</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-27488.32094887003</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-27488.12094887003</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-28357.44474887002</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-28357.44474887002</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-28357.44474887002</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-28357.44474887002</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-28357.24474887002</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-28407.26514887002</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-27907.26514887002</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-26600.78564887002</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-28631.74904887002</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-28631.74904887002</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-29515.88724887003</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-28394.20714887002</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-32008.62724887002</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-32152.07664887002</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-32795.55804887002</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-32845.55804887002</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-32294.25274887002</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-32294.25274887002</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-32184.67194887002</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-32434.67194887002</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-32434.67194887002</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-32057.09194887002</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-32297.30144887002</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-32279.36754887002</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-32416.77644887002</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-32416.77644887002</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-32416.77644887002</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-32899.14174887002</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-32899.14174887002</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-32899.14174887002</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-32899.14174887002</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-32899.14174887002</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-32399.14174887002</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-33152.23504887002</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-33183.65444887002</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-33183.65444887002</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-32925.43834887002</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-33230.86114887002</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-33231.10304887002</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-32966.39354887002</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-32549.37594887002</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-32549.37594887002</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-32840.54244887002</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-33264.37054887002</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-33070.37054887002</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-33093.65414887002</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-33093.65414887002</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-32754.27184887002</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-33449.90324887002</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-34500.18404440003</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-34500.18404440003</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-34507.45424440003</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-34541.22914440002</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-34502.09674440002</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-45564.80314440002</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-45564.80314440002</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-45512.27984440002</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-45512.27984440002</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-45526.71104440002</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-45605.44104440002</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-45763.67504440002</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-45718.74744440002</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -28138,11 +28138,17 @@
         <v>-208004.9089855099</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>3964</v>
+      </c>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28175,7 +28181,11 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28208,7 +28218,11 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28241,7 +28255,11 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28274,7 +28292,11 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28307,7 +28329,11 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28340,7 +28366,11 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28373,7 +28403,11 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28406,7 +28440,11 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28439,7 +28477,11 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28472,7 +28514,11 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28501,11 +28547,17 @@
         <v>-214105.91588551</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
-      </c>
-      <c r="I852" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I852" t="n">
+        <v>3943</v>
+      </c>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28534,11 +28586,17 @@
         <v>-216958.63478551</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
-      </c>
-      <c r="I853" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I853" t="n">
+        <v>3950</v>
+      </c>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28575,7 +28633,7 @@
       <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L854" t="n">
@@ -29074,9 +29132,11 @@
         <v>-225960.66808551</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I867" t="n">
+        <v>3966</v>
+      </c>
       <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
@@ -29111,9 +29171,11 @@
         <v>-225131.41608551</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I868" t="n">
+        <v>3967</v>
+      </c>
       <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
@@ -29148,9 +29210,11 @@
         <v>-227592.40568551</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I869" t="n">
+        <v>3975</v>
+      </c>
       <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
@@ -29185,9 +29249,11 @@
         <v>-227435.06478551</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I870" t="n">
+        <v>3971</v>
+      </c>
       <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
@@ -29222,9 +29288,11 @@
         <v>-227213.21568551</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
-      </c>
-      <c r="I871" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I871" t="n">
+        <v>3972</v>
+      </c>
       <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
@@ -29259,9 +29327,11 @@
         <v>-214867.84868551</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
-      </c>
-      <c r="I872" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I872" t="n">
+        <v>3974</v>
+      </c>
       <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
@@ -30406,16 +30476,18 @@
         <v>-174449.16972776</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L903" t="inlineStr"/>
+      <c r="L903" t="n">
+        <v>1</v>
+      </c>
       <c r="M903" t="inlineStr"/>
     </row>
     <row r="904">
@@ -30441,11 +30513,15 @@
         <v>-173088.72162776</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30474,11 +30550,15 @@
         <v>-172300.37432776</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30507,11 +30587,15 @@
         <v>-156400.95357357</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30540,11 +30624,15 @@
         <v>-167570.38102091</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30573,11 +30661,15 @@
         <v>-155150.13081896</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30606,11 +30698,15 @@
         <v>-138780.96212091</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -30639,11 +30735,15 @@
         <v>-129581.31946585</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -30672,11 +30772,15 @@
         <v>-133367.01916585</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -30705,11 +30809,15 @@
         <v>-136104.09979317</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -30738,11 +30846,15 @@
         <v>-136104.09979317</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -30771,11 +30883,15 @@
         <v>-136856.29689317</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -30804,11 +30920,15 @@
         <v>-136141.55609317</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -30837,11 +30957,15 @@
         <v>-135709.01329317</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -30870,11 +30994,15 @@
         <v>-147107.47601703</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -30903,11 +31031,15 @@
         <v>-147471.69551703</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -30936,11 +31068,15 @@
         <v>-148767.37111703</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -30969,11 +31105,15 @@
         <v>-150038.84461703</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -31006,7 +31146,11 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -31039,7 +31183,11 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -31072,7 +31220,11 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -31105,7 +31257,11 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -31138,7 +31294,11 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -31171,7 +31331,11 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -31204,7 +31368,11 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -31237,7 +31405,11 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -31270,7 +31442,11 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -31303,7 +31479,11 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -31336,7 +31516,11 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -31369,7 +31553,11 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -31402,7 +31590,11 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -31435,7 +31627,11 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -31468,7 +31664,11 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -31501,7 +31701,11 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -31534,7 +31738,11 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -31567,7 +31775,11 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -31600,7 +31812,11 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -31633,7 +31849,11 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -31666,7 +31886,11 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -31699,7 +31923,11 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -31732,7 +31960,11 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -31765,7 +31997,11 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -31798,7 +32034,11 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -31831,7 +32071,11 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -31864,7 +32108,11 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -31897,7 +32145,11 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -31930,7 +32182,11 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -31963,7 +32219,11 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -31996,7 +32256,11 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -32029,7 +32293,11 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -32062,7 +32330,11 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -32095,7 +32367,11 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -32128,7 +32404,11 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -32161,7 +32441,11 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -32194,7 +32478,11 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -32227,7 +32515,11 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -32260,7 +32552,11 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -32293,7 +32589,11 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -32326,7 +32626,11 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -32359,7 +32663,11 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -32392,7 +32700,11 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -32425,7 +32737,11 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -32458,7 +32774,11 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -32491,7 +32811,11 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -32524,7 +32848,11 @@
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -32557,7 +32885,11 @@
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -32590,7 +32922,11 @@
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -32623,7 +32959,11 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -32656,7 +32996,11 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -32689,7 +33033,11 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -32722,7 +33070,11 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -32755,7 +33107,11 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -32788,7 +33144,11 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -32821,7 +33181,11 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -32854,7 +33218,11 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -32887,7 +33255,11 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -32920,7 +33292,11 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -32953,7 +33329,11 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -32986,7 +33366,11 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -33019,7 +33403,11 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -33052,7 +33440,11 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -33085,7 +33477,11 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -33118,7 +33514,11 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -33151,7 +33551,11 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -33184,7 +33588,11 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -33217,7 +33625,11 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -33250,7 +33662,11 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -33283,7 +33699,11 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -33316,7 +33736,11 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -33349,7 +33773,11 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -33382,7 +33810,11 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -33415,7 +33847,11 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -33448,7 +33884,11 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -33481,7 +33921,11 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -33514,7 +33958,11 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -33547,7 +33995,11 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -33580,7 +34032,11 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -33613,7 +34069,11 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -33646,7 +34106,11 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -33679,7 +34143,11 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -33712,7 +34180,11 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -33745,7 +34217,11 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -33778,7 +34254,11 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -33811,7 +34291,11 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -33844,7 +34328,11 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -33877,7 +34365,11 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -33910,7 +34402,11 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -33943,7 +34439,11 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -33976,7 +34476,11 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -34009,7 +34513,11 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -34042,7 +34550,11 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -34071,14 +34583,16 @@
         <v>-106024.23334377</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
-      <c r="L1014" t="n">
-        <v>1</v>
-      </c>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L1014" t="inlineStr"/>
       <c r="M1014" t="inlineStr"/>
     </row>
     <row r="1015">
@@ -34104,7 +34618,7 @@
         <v>-109674.06244377</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -34368,7 +34882,7 @@
         <v>-112721.04704377</v>
       </c>
       <c r="H1023" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -34467,7 +34981,7 @@
         <v>-109589.1547437701</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -34500,7 +35014,7 @@
         <v>-109888.7841437701</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -34533,7 +35047,7 @@
         <v>-110061.7841437701</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -34566,7 +35080,7 @@
         <v>-109701.7841437701</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -34599,7 +35113,7 @@
         <v>-109766.6970437701</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -34632,7 +35146,7 @@
         <v>-115036.01414631</v>
       </c>
       <c r="H1031" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -34731,7 +35245,7 @@
         <v>-118527.13724631</v>
       </c>
       <c r="H1034" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -34764,7 +35278,7 @@
         <v>-116603.77997355</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -34830,7 +35344,7 @@
         <v>-120383.47517355</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -34863,7 +35377,7 @@
         <v>-119909.36167355</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
